--- a/Psychiatry.xlsx
+++ b/Psychiatry.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6433EE-5FC7-4AAD-90C9-B4B45A151ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C8BF4E-40E7-46B3-9E32-2C5209F39E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="240" windowWidth="26655" windowHeight="20565" activeTab="3" xr2:uid="{21D7DEA8-0D3F-4F82-8050-402D59117DB0}"/>
+    <workbookView xWindow="-33645" yWindow="210" windowWidth="32430" windowHeight="20220" activeTab="6" xr2:uid="{21D7DEA8-0D3F-4F82-8050-402D59117DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseases" sheetId="4" r:id="rId1"/>
-    <sheet name="Proteins" sheetId="1" r:id="rId2"/>
-    <sheet name="Genes" sheetId="2" r:id="rId3"/>
-    <sheet name="Medicines" sheetId="3" r:id="rId4"/>
-    <sheet name="Investigational" sheetId="5" r:id="rId5"/>
+    <sheet name="Patents" sheetId="8" r:id="rId2"/>
+    <sheet name="Schizophrenia" sheetId="6" r:id="rId3"/>
+    <sheet name="Proteins, Molecules, Mechanisms" sheetId="1" r:id="rId4"/>
+    <sheet name="Genes" sheetId="2" r:id="rId5"/>
+    <sheet name="Medicines" sheetId="3" r:id="rId6"/>
+    <sheet name="Investigational" sheetId="5" r:id="rId7"/>
+    <sheet name="Companies" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="373">
   <si>
     <t>Main</t>
   </si>
@@ -970,13 +973,202 @@
   </si>
   <si>
     <t>H1 antagonist</t>
+  </si>
+  <si>
+    <t>Down Syndrome</t>
+  </si>
+  <si>
+    <t>Developmental Prosopagnosia</t>
+  </si>
+  <si>
+    <t>MK-1942</t>
+  </si>
+  <si>
+    <t>TRD</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Phase III</t>
+  </si>
+  <si>
+    <t>Phase II</t>
+  </si>
+  <si>
+    <t>Axsome</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>Cymbalta, Prozac, Zyprexa</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Invega Sustenna, Spravato</t>
+  </si>
+  <si>
+    <t>Lundbeck</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Therapeutic Uses of Compounds Having Combined SERT, 5-HT3 and 5-HT1A Activity</t>
+  </si>
+  <si>
+    <t>Breye Therapeutics</t>
+  </si>
+  <si>
+    <t>Heterocyclic P2X7 antagonists</t>
+  </si>
+  <si>
+    <t>Johns Hopkins</t>
+  </si>
+  <si>
+    <t>Modulating Syngap</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>5-HT2C receptor agonists and compositions and methods of use</t>
+  </si>
+  <si>
+    <t>implicated in depression</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>dopamine subreceptor implicated in psychosis</t>
+  </si>
+  <si>
+    <t>5HT-2A</t>
+  </si>
+  <si>
+    <t>serotonin subreceptor implicated in depression and psychosis</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>SEP-363856</t>
+  </si>
+  <si>
+    <t>ulotaront</t>
+  </si>
+  <si>
+    <t>TAAR agonist</t>
+  </si>
+  <si>
+    <t>5HT-1A</t>
+  </si>
+  <si>
+    <t>ulotaront is agonist</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>PCP-induced hyperactivity</t>
+  </si>
+  <si>
+    <t>prepulse inhibition</t>
+  </si>
+  <si>
+    <t>REM sleep suppression</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Phase II n=245, 50mg, 75mg or PBO. -17.2 points vs -9.7 points at 4 weeks.</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>CVL-231</t>
+  </si>
+  <si>
+    <t>emraclidine</t>
+  </si>
+  <si>
+    <t>M4 PAM</t>
+  </si>
+  <si>
+    <t>CERE</t>
+  </si>
+  <si>
+    <t>Mechanisms</t>
+  </si>
+  <si>
+    <t>TAAR</t>
+  </si>
+  <si>
+    <t>5-HT1</t>
+  </si>
+  <si>
+    <t>5-HT2A</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>muscarinic receptor implicated in psychosis; emraclidine pam</t>
+  </si>
+  <si>
+    <t>NBI-1117568</t>
+  </si>
+  <si>
+    <t>NBIX</t>
+  </si>
+  <si>
+    <t>MK-8189</t>
+  </si>
+  <si>
+    <t>PDE10A inhibitor</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>implicated in schizophrenia; MK-8189 inhibitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -998,6 +1190,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1016,10 +1215,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1032,9 +1232,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1349,13 +1551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC583FC-84B6-4343-AA1F-B4F266F953F7}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,15 +1660,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
         <v>185</v>
@@ -1474,15 +1676,15 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>185</v>
@@ -1490,7 +1692,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -1498,7 +1700,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>185</v>
@@ -1506,15 +1708,15 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
         <v>185</v>
@@ -1522,7 +1724,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
         <v>186</v>
@@ -1530,7 +1732,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>185</v>
@@ -1538,7 +1740,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
@@ -1546,7 +1748,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
         <v>185</v>
@@ -1554,18 +1756,130 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>216</v>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" location="Schizophrenia!A1" display="Schizophrenia" xr:uid="{DBB2FF0F-3ECD-406C-B17A-BE118BF99EFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F74B21-AE07-449E-A53E-47A64C6464F2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>11628166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45034</v>
+      </c>
+      <c r="E3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11623919</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45027</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>11618900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>11608339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45006</v>
+      </c>
+      <c r="E6" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1573,27 +1887,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DAE79-DA6F-4519-9BB3-F5A863C4C6BE}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449B0A2-05BA-4D8D-8F6A-8DF5A929FBB2}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046CC549-FC9D-42D1-B26E-A7634E596B22}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DAE79-DA6F-4519-9BB3-F5A863C4C6BE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1608,46 +1978,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>176</v>
+        <v>340</v>
+      </c>
+      <c r="C4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>177</v>
+        <v>365</v>
+      </c>
+      <c r="C6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -1655,15 +2034,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046CC549-FC9D-42D1-B26E-A7634E596B22}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7D575C-D05A-40FD-86B1-1382659A0949}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2579,7 @@
       <c r="D20" s="2">
         <v>26036</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>261</v>
       </c>
       <c r="F20" t="s">
@@ -4035,98 +4484,303 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34317FD-DE1C-4EF0-8304-A1C8D73D619F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5C7B86-D25F-4A61-8060-992A7985EAD5}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>143</v>
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Psychiatry.xlsx
+++ b/Psychiatry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCAA68A-F94A-8E41-9E9A-E15826084C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CD905-43F6-42CC-B57B-358BCE9C6730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20920" yWindow="1940" windowWidth="21600" windowHeight="15260" activeTab="1" xr2:uid="{21D7DEA8-0D3F-4F82-8050-402D59117DB0}"/>
+    <workbookView xWindow="6810" yWindow="1005" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="7" xr2:uid="{21D7DEA8-0D3F-4F82-8050-402D59117DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Diseases" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="429">
   <si>
     <t>Main</t>
   </si>
@@ -1322,6 +1322,15 @@
   </si>
   <si>
     <t>Chapman University</t>
+  </si>
+  <si>
+    <t>RG7906, RO-6889450</t>
+  </si>
+  <si>
+    <t>ralmitaront</t>
+  </si>
+  <si>
+    <t>Roche</t>
   </si>
 </sst>
 </file>
@@ -1415,9 +1424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1455,7 +1464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1561,7 +1570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1703,7 +1712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1713,26 +1722,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC583FC-84B6-4343-AA1F-B4F266F953F7}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>218</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>182</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>271</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>217</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>311</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>310</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>237</v>
       </c>
@@ -1882,7 +1891,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>183</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>181</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>219</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>235</v>
       </c>
@@ -1922,7 +1931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>266</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>216</v>
       </c>
@@ -1958,16 +1967,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCA9ECE-BE9D-4643-B386-EDA482CC292C}">
   <dimension ref="B3:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2023</v>
       </c>
@@ -2000,14 +2009,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>328</v>
       </c>
@@ -2021,7 +2030,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11628166</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>11623919</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>11618900</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>11608339</v>
       </c>
@@ -2086,18 +2095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449B0A2-05BA-4D8D-8F6A-8DF5A929FBB2}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>350</v>
       </c>
@@ -2105,17 +2117,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>361</v>
       </c>
@@ -2123,27 +2135,27 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>371</v>
       </c>
@@ -2159,17 +2171,17 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>348</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>342</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>340</v>
       </c>
@@ -2193,12 +2205,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>365</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>371</v>
       </c>
@@ -2238,17 +2250,17 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2256,17 +2268,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -2274,17 +2286,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>119</v>
       </c>
@@ -2308,23 +2320,23 @@
       <selection pane="bottomRight" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>294</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>172</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -2555,7 +2567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>63</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>113</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>58</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>61</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>297</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>256</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>49</v>
       </c>
@@ -2863,7 +2875,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>100</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>133</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>244</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -3030,7 +3042,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>253</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>299</v>
       </c>
@@ -3099,7 +3111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>110</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>205</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>60</v>
       </c>
@@ -3240,7 +3252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>78</v>
       </c>
@@ -3266,7 +3278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>130</v>
       </c>
@@ -3292,7 +3304,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>74</v>
       </c>
@@ -3344,7 +3356,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -3390,7 +3402,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>107</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -3439,7 +3451,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>240</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>273</v>
       </c>
@@ -3491,7 +3503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3526,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>75</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>104</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>103</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>79</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>134</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>76</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>70</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>72</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>147</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>73</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>131</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>188</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>238</v>
       </c>
@@ -3852,7 +3864,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>267</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>145</v>
       </c>
@@ -3904,7 +3916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>71</v>
       </c>
@@ -3930,7 +3942,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>105</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>144</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>272</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>201</v>
       </c>
@@ -4031,7 +4043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>146</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>208</v>
       </c>
@@ -4083,7 +4095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>197</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>255</v>
       </c>
@@ -4135,7 +4147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>210</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>228</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>279</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>123</v>
       </c>
@@ -4239,7 +4251,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>189</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>223</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>222</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>213</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>161</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>280</v>
       </c>
@@ -4395,7 +4407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>204</v>
       </c>
@@ -4421,7 +4433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>281</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>94</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>276</v>
       </c>
@@ -4499,7 +4511,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>202</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>278</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>291</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>274</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>277</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>93</v>
       </c>
@@ -4655,12 +4667,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>111</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>112</v>
       </c>
@@ -4676,7 +4688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>114</v>
       </c>
@@ -4688,30 +4700,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34317FD-DE1C-4EF0-8304-A1C8D73D619F}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>345</v>
       </c>
@@ -4763,92 +4775,92 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
       <c r="H4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>190</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>195</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>312</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>313</v>
-      </c>
-      <c r="G9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" t="s">
-        <v>194</v>
       </c>
       <c r="G10" t="s">
         <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>367</v>
+        <v>357</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -4863,18 +4875,18 @@
         <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F12" t="s">
         <v>194</v>
@@ -4883,44 +4895,41 @@
         <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
         <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>356</v>
@@ -4929,41 +4938,44 @@
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
       <c r="G15" t="s">
         <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
       </c>
       <c r="G16" t="s">
         <v>186</v>
@@ -4972,52 +4984,52 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>399</v>
+        <v>381</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F17" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
         <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
         <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>405</v>
+        <v>403</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -5026,177 +5038,197 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="G19" t="s">
         <v>186</v>
       </c>
       <c r="H19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>410</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>408</v>
-      </c>
-      <c r="D21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" t="s">
-        <v>411</v>
-      </c>
-      <c r="H21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>412</v>
       </c>
       <c r="D22" t="s">
         <v>409</v>
       </c>
       <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="H22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" t="s">
         <v>415</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>401</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>186</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>416</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>418</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>401</v>
-      </c>
-      <c r="G24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>420</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
       <c r="H25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5216,20 +5248,20 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5249,7 +5281,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>314</v>
       </c>
@@ -5260,12 +5292,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>320</v>
       </c>
@@ -5273,7 +5305,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>321</v>
       </c>
@@ -5281,7 +5313,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>323</v>
       </c>
@@ -5289,12 +5321,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>327</v>
       </c>
